--- a/size_glacial/smallbirds/Athene.xlsx
+++ b/size_glacial/smallbirds/Athene.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t xml:space="preserve">CAT. #</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">ROBUSTNESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMNH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCMVZ</t>
   </si>
   <si>
     <t xml:space="preserve">G4669</t>
@@ -301,13 +307,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -318,6 +317,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1190,11 +1194,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67423901"/>
-        <c:axId val="71295295"/>
+        <c:axId val="3718022"/>
+        <c:axId val="21699574"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67423901"/>
+        <c:axId val="3718022"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1268,12 +1272,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71295295"/>
+        <c:crossAx val="21699574"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71295295"/>
+        <c:axId val="21699574"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,7 +1361,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67423901"/>
+        <c:crossAx val="3718022"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2136,11 +2140,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="10438172"/>
-        <c:axId val="55995071"/>
+        <c:axId val="90849227"/>
+        <c:axId val="46971663"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="10438172"/>
+        <c:axId val="90849227"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2214,12 +2218,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55995071"/>
+        <c:crossAx val="46971663"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55995071"/>
+        <c:axId val="46971663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,7 +2307,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10438172"/>
+        <c:crossAx val="90849227"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2347,13 +2351,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>325080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:colOff>227880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2361,8 +2365,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8544240" y="467280"/>
-        <a:ext cx="7095240" cy="4376160"/>
+        <a:off x="9174240" y="467280"/>
+        <a:ext cx="7646040" cy="4375800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2376,14 +2380,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>842400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>806400</xdr:colOff>
+      <xdr:colOff>806040</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2391,8 +2395,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9061560" y="8262720"/>
-        <a:ext cx="7156080" cy="3875400"/>
+        <a:off x="9691560" y="8262720"/>
+        <a:ext cx="7706880" cy="3875040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2412,13 +2416,13 @@
   </sheetPr>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A93" activeCellId="0" sqref="A93:H110"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3814814814815"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,7 +2448,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
@@ -2465,7 +2472,10 @@
         <v>0.142718446601942</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
@@ -2486,7 +2496,10 @@
         <v>0.1378896882494</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
@@ -2507,7 +2520,10 @@
         <v>0.190588235294118</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
@@ -2528,7 +2544,10 @@
         <v>0.228712871287129</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
@@ -2549,7 +2568,10 @@
         <v>0.186521739130435</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
@@ -2570,7 +2592,10 @@
         <v>0.186609071274298</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
@@ -2591,7 +2616,10 @@
         <v>0.188007736943907</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
@@ -2612,7 +2640,10 @@
         <v>0.240941176470588</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
       </c>
@@ -2634,6 +2665,9 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
       </c>
@@ -2655,6 +2689,9 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
       </c>
@@ -2676,6 +2713,9 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
@@ -2697,6 +2737,9 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
@@ -2718,6 +2761,9 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
@@ -2739,6 +2785,9 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
@@ -2760,6 +2809,9 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
@@ -2781,6 +2833,9 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
@@ -2803,7 +2858,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>10</v>
@@ -2830,7 +2885,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>10</v>
@@ -2857,7 +2912,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>10</v>
@@ -2884,7 +2939,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>10</v>
@@ -2911,7 +2966,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>10</v>
@@ -2938,7 +2993,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>10</v>
@@ -2965,7 +3020,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>10</v>
@@ -2992,7 +3047,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>10</v>
@@ -3019,7 +3074,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>10</v>
@@ -3046,7 +3101,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>10</v>
@@ -3073,7 +3128,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>10</v>
@@ -3100,7 +3155,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>10</v>
@@ -3127,7 +3182,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>10</v>
@@ -3154,7 +3209,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>10</v>
@@ -3181,7 +3236,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>10</v>
@@ -3208,7 +3263,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>10</v>
@@ -3235,7 +3290,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>10</v>
@@ -3262,7 +3317,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>10</v>
@@ -3289,7 +3344,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>10</v>
@@ -3316,7 +3371,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>10</v>
@@ -3343,7 +3398,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>10</v>
@@ -3370,7 +3425,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>10</v>
@@ -3397,7 +3452,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>10</v>
@@ -3424,7 +3479,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>10</v>
@@ -3451,7 +3506,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>10</v>
@@ -3478,7 +3533,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>10</v>
@@ -3505,7 +3560,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>10</v>
@@ -3532,7 +3587,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>10</v>
@@ -3559,7 +3614,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>10</v>
@@ -3586,7 +3641,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>10</v>
@@ -3613,7 +3668,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>10</v>
@@ -3640,7 +3695,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>10</v>
@@ -3667,7 +3722,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>10</v>
@@ -3694,7 +3749,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>4</v>
@@ -3721,7 +3776,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4</v>
@@ -3748,7 +3803,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>4</v>
@@ -3775,7 +3830,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>3</v>
@@ -3802,7 +3857,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3</v>
@@ -3829,7 +3884,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3</v>
@@ -3856,7 +3911,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>3</v>
@@ -3883,7 +3938,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>3</v>
@@ -3910,7 +3965,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3</v>
@@ -3937,7 +3992,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>3</v>
@@ -3964,7 +4019,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>3</v>
@@ -3991,7 +4046,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>3</v>
@@ -4018,7 +4073,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>3</v>
@@ -4045,7 +4100,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>3</v>
@@ -4072,7 +4127,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>3</v>
@@ -4099,7 +4154,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>3</v>
@@ -4126,7 +4181,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>3</v>
@@ -4153,7 +4208,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>3</v>
@@ -4180,7 +4235,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>3</v>
@@ -4207,7 +4262,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>3</v>
@@ -4234,7 +4289,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>3</v>
@@ -4261,7 +4316,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>3</v>
@@ -4288,7 +4343,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>3</v>
@@ -4315,7 +4370,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>3</v>
@@ -4342,7 +4397,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>3</v>
@@ -4369,7 +4424,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>3</v>
@@ -4396,7 +4451,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>3</v>
@@ -4423,7 +4478,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>3</v>
@@ -4450,7 +4505,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>3</v>
@@ -4477,7 +4532,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>91</v>
@@ -4504,7 +4559,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>91</v>
@@ -4531,7 +4586,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>91</v>
@@ -4558,7 +4613,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>91</v>
@@ -4585,7 +4640,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>91</v>
@@ -4612,7 +4667,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>91</v>
@@ -4639,7 +4694,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>91</v>
@@ -4666,7 +4721,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>91</v>
@@ -4693,7 +4748,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>91</v>
@@ -4720,7 +4775,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>91</v>
@@ -4747,7 +4802,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>91</v>
@@ -4774,7 +4829,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>91</v>
